--- a/dr/protected/commands/template/month_comprehensive.xlsx
+++ b/dr/protected/commands/template/month_comprehensive.xlsx
@@ -18,8 +18,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
-    <t>生意额增长
-(当月生意额-上月）/上月</t>
+    <t xml:space="preserve">生意额增长
+</t>
   </si>
   <si>
     <t>当月</t>
@@ -31,12 +31,12 @@
     <t>比去年当月</t>
   </si>
   <si>
-    <t>纯利润增长
-（当月利润额-上月）/上月</t>
+    <t xml:space="preserve">纯利润增长
+</t>
   </si>
   <si>
-    <t>停单比例
-当月停单总月金额/当月生意额</t>
+    <t xml:space="preserve">停单比例
+</t>
   </si>
   <si>
     <t>上月</t>
@@ -45,12 +45,12 @@
     <t>去年当月</t>
   </si>
   <si>
-    <t>收款率
-当月收款额/上月生意额</t>
+    <t xml:space="preserve">收款率
+</t>
   </si>
   <si>
-    <t>技术员平均生产力
-(月报的技术当月平均生意额）</t>
+    <t xml:space="preserve">技术员平均生产力
+</t>
   </si>
   <si>
     <t>月报表分数</t>
@@ -59,15 +59,15 @@
     <t>老总回馈次数</t>
   </si>
   <si>
-    <t>质检拜访量
-（月报里的质检客户数量）</t>
+    <t xml:space="preserve">质检拜访量
+</t>
   </si>
   <si>
     <t>销售拜访量</t>
   </si>
   <si>
-    <t>签单成交率
-（当月签单量/当月拜访量）</t>
+    <t xml:space="preserve">签单成交率
+</t>
   </si>
 </sst>
 </file>
@@ -104,6 +104,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -119,6 +134,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -127,6 +163,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -144,49 +202,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,8 +224,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,30 +247,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,37 +257,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +377,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,90 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +479,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -503,37 +518,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +565,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:BV166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1125,6 +1125,24 @@
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="8" width="13.375" style="3"/>
+    <col min="9" max="9" width="13.8166666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.7" customWidth="1"/>
+    <col min="11" max="11" width="14.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="15.7333333333333" customWidth="1"/>
+    <col min="13" max="13" width="15.4416666666667" customWidth="1"/>
+    <col min="14" max="14" width="15.2833333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.7" customWidth="1"/>
+    <col min="16" max="16" width="14.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="13.9666666666667" customWidth="1"/>
+    <col min="18" max="18" width="14.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="14.5583333333333" customWidth="1"/>
+    <col min="20" max="20" width="13.3833333333333" customWidth="1"/>
+    <col min="21" max="21" width="14.2583333333333" customWidth="1"/>
+    <col min="22" max="22" width="14.4083333333333" customWidth="1"/>
+    <col min="23" max="23" width="13.9666666666667" customWidth="1"/>
+    <col min="24" max="24" width="14.2583333333333" customWidth="1"/>
+    <col min="25" max="25" width="15.4333333333333" customWidth="1"/>
+    <col min="26" max="26" width="15.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
